--- a/excentricbot/evidence.xlsx
+++ b/excentricbot/evidence.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Desktop/excentricbot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A5D75-2937-0248-98F5-38FC96002B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="11325" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
   <si>
     <t>TeamName</t>
   </si>
@@ -139,18 +144,33 @@
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
+  <si>
+    <t>TestScript</t>
+  </si>
+  <si>
+    <t>iaa1l2ujzn4mf00c4mvavfrysf0qxqal8flktd5tz3</t>
+  </si>
+  <si>
+    <t>stars1l2ujzn4mf00c4mvavfrysf0qxqal8flk2nr8t3</t>
+  </si>
+  <si>
+    <t>juno1l2ujzn4mf00c4mvavfrysf0qxqal8flkgahp8u</t>
+  </si>
+  <si>
+    <t>omniflix1l2ujzn4mf00c4mvavfrysf0qxqal8flkr39rh7</t>
+  </si>
+  <si>
+    <t>Chess-Right#4208</t>
+  </si>
+  <si>
+    <t>IRIS &amp; Cosmos Hub</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,163 +190,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,194 +215,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -540,303 +224,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -909,6 +315,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1166,30 +575,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="14.6171875" customWidth="1"/>
-    <col min="2" max="2" width="14.8828125" customWidth="1"/>
-    <col min="3" max="3" width="17.5078125" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" customWidth="1"/>
-    <col min="5" max="5" width="18.1171875" customWidth="1"/>
-    <col min="6" max="6" width="17.7421875" customWidth="1"/>
-    <col min="7" max="7" width="14.6171875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1237,32 +647,54 @@
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1279,27 +711,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1316,27 +744,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1344,7 +768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1353,27 +777,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1390,27 +810,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1426,38 +842,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,7 +877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1473,38 +885,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1512,7 +920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1520,38 +928,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1567,38 +971,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1614,38 +1014,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1653,7 +1049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1661,38 +1057,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="17.8828125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1709,27 +1101,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1745,38 +1133,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1784,7 +1168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1792,52 +1176,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:1">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.1" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="16.4" customHeight="1" spans="1:1">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1846,34 +1226,33 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.1" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:1">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1882,34 +1261,33 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.1" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:1">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1918,34 +1296,33 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.1" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:1">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1954,21 +1331,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="2" width="17.8828125" customWidth="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
+    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1991,28 +1365,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8828125" customWidth="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +1396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2041,28 +1411,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8828125" customWidth="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2076,7 +1442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2091,28 +1457,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8828125" customWidth="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2126,7 +1488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2141,30 +1503,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.8828125" customWidth="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.2578125" customWidth="1"/>
-    <col min="4" max="4" width="14.3828125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2178,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2193,27 +1551,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2221,7 +1575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -2230,27 +1584,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2258,7 +1608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -2267,8 +1617,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>